--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03370003799608814</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932217927235921</v>
+        <v>-1.936244009846602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3936211610045455</v>
+        <v>0.3916135948795461</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.231352424308923</v>
+        <v>-0.2315378504164684</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.009686595752301037</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.945768633567645</v>
+        <v>-1.949256688456825</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3120497342135675</v>
+        <v>0.3096333546231135</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.211491390128292</v>
+        <v>-0.2116125741198374</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.01239182413203914</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.01502747480799</v>
+        <v>-2.02275696940126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2853629752079382</v>
+        <v>0.2800016786181215</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2289915265459236</v>
+        <v>-0.2286308946674692</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02816045961254253</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.07974848658179</v>
+        <v>-2.082494107016744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2606910825677631</v>
+        <v>0.2570760034946731</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355573628107401</v>
+        <v>-0.2336344794750133</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03746192081289917</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.045922822435663</v>
+        <v>-2.04625571340039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2474907877778575</v>
+        <v>0.2416359949333136</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2232841985585615</v>
+        <v>-0.2215000197914711</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04221157746437244</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.912327692093472</v>
+        <v>-1.906937194541837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2631337430238533</v>
+        <v>0.26205184738849</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.210355472713565</v>
+        <v>-0.2091042114996562</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.04582756220785033</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.640288611699181</v>
+        <v>-1.634581283711819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2612342204575811</v>
+        <v>0.2642506798133984</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1847068079005719</v>
+        <v>-0.1882620250019346</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05098409417410623</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.263126068759464</v>
+        <v>-1.259522670071102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2451386503034036</v>
+        <v>0.2462731076700397</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1268115209517693</v>
+        <v>-0.1323392630239496</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.05978417114905582</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7756817133691405</v>
+        <v>-0.776567962560322</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2701215331869423</v>
+        <v>0.2717567870487601</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02675150518561431</v>
+        <v>-0.03184415292670385</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07586577809049905</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2406938119945569</v>
+        <v>-0.2461047502194645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1643644097700616</v>
+        <v>0.1587242439948813</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06169236796927103</v>
+        <v>0.05578209329727262</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1051776864686745</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4257363788121733</v>
+        <v>0.4260400688150823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04218028528236718</v>
+        <v>0.03581009546173253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1614107324821533</v>
+        <v>0.1534140490882464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1537603213944652</v>
       </c>
       <c r="E13" t="n">
-        <v>1.111880138942353</v>
+        <v>1.104528796804627</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1232431634175884</v>
+        <v>-0.1273166975912237</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2930238475409362</v>
+        <v>0.2879618608097557</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2263199868846843</v>
       </c>
       <c r="E14" t="n">
-        <v>1.828547664461069</v>
+        <v>1.823900331387707</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3448813837137107</v>
+        <v>-0.3582087026875253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4405281260211693</v>
+        <v>0.4331753238353531</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3245999912975512</v>
       </c>
       <c r="E15" t="n">
-        <v>2.532702577840698</v>
+        <v>2.529697798869608</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6164269678532741</v>
+        <v>-0.6293264927364525</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6288568091713006</v>
+        <v>0.6224953796392113</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4483387152833634</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202906992962427</v>
+        <v>3.203823903163518</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9358752698074611</v>
+        <v>-0.9440237982028226</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7845052359026224</v>
+        <v>0.7792169417173511</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5949727277382248</v>
       </c>
       <c r="E17" t="n">
-        <v>3.859156268431251</v>
+        <v>3.862099725382523</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.195022125559028</v>
+        <v>-1.208943684105842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.983381306461478</v>
+        <v>0.9774374506833887</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7606878285271174</v>
       </c>
       <c r="E18" t="n">
-        <v>4.398725800715106</v>
+        <v>4.400290972268561</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.555683204975295</v>
+        <v>-1.565738556177383</v>
       </c>
       <c r="G18" t="n">
-        <v>1.182855996737606</v>
+        <v>1.177021644566335</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9397858603677829</v>
       </c>
       <c r="E19" t="n">
-        <v>4.926593047550329</v>
+        <v>4.927429655106419</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.837987153472719</v>
+        <v>-1.854147695766942</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378927314913826</v>
+        <v>1.378854312509281</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.124687554517499</v>
       </c>
       <c r="E20" t="n">
-        <v>5.287843986395322</v>
+        <v>5.290266206178139</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.15902471777386</v>
+        <v>-2.174688113693128</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588666143269043</v>
+        <v>1.587606148355043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.307316788145014</v>
       </c>
       <c r="E21" t="n">
-        <v>5.599010895577875</v>
+        <v>5.597945060471512</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.473982641824457</v>
+        <v>-2.493258926744679</v>
       </c>
       <c r="G21" t="n">
-        <v>1.769088666006903</v>
+        <v>1.770085878852994</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.476330706845185</v>
       </c>
       <c r="E22" t="n">
-        <v>5.835151773560994</v>
+        <v>5.838831094750083</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.78376688546492</v>
+        <v>-2.803754213805414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896607806218778</v>
+        <v>1.896190232464778</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.620309172771204</v>
       </c>
       <c r="E23" t="n">
-        <v>5.985044690717953</v>
+        <v>5.994971557688041</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.035092263593488</v>
+        <v>-3.052828197777802</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014426386914656</v>
+        <v>2.016436873135837</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.731521611369554</v>
       </c>
       <c r="E24" t="n">
-        <v>6.075182219658292</v>
+        <v>6.083898706761017</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.269421951919834</v>
+        <v>-3.285489781160285</v>
       </c>
       <c r="G24" t="n">
-        <v>2.11734517684281</v>
+        <v>2.120119268215536</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.807448791319988</v>
       </c>
       <c r="E25" t="n">
-        <v>6.089105238253198</v>
+        <v>6.10117545582074</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.444386814893878</v>
+        <v>-3.461642393256283</v>
       </c>
       <c r="G25" t="n">
-        <v>2.175049197491703</v>
+        <v>2.17194221515425</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.848907035935107</v>
       </c>
       <c r="E26" t="n">
-        <v>6.036388741882848</v>
+        <v>6.047217918573119</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.60966790890497</v>
+        <v>-3.628950034017556</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201727196208787</v>
+        <v>2.197485756504697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.859021999292227</v>
       </c>
       <c r="E27" t="n">
-        <v>5.935940353324511</v>
+        <v>5.941799526313329</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.697954096866038</v>
+        <v>-3.720278232176032</v>
       </c>
       <c r="G27" t="n">
-        <v>2.203803384594059</v>
+        <v>2.203607738149878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.843019961993637</v>
       </c>
       <c r="E28" t="n">
-        <v>5.864383396389076</v>
+        <v>5.868762080613712</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.765023595994065</v>
+        <v>-3.785509530757605</v>
       </c>
       <c r="G28" t="n">
-        <v>2.212020535249694</v>
+        <v>2.209520932918058</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.80584993954625</v>
       </c>
       <c r="E29" t="n">
-        <v>5.668936978795766</v>
+        <v>5.670868622420038</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.803514113790646</v>
+        <v>-3.826106167925321</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208526640168149</v>
+        <v>2.209988148307149</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.752168006624586</v>
       </c>
       <c r="E30" t="n">
-        <v>5.458287080431822</v>
+        <v>5.459186470055822</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.829340174446684</v>
+        <v>-3.858957249970767</v>
       </c>
       <c r="G30" t="n">
-        <v>2.162507384390798</v>
+        <v>2.164658035228706</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.685231937493886</v>
       </c>
       <c r="E31" t="n">
-        <v>5.180121638248078</v>
+        <v>5.178084871161261</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.725510314509803</v>
+        <v>-3.753131504293614</v>
       </c>
       <c r="G31" t="n">
-        <v>2.080137311294093</v>
+        <v>2.083488121662728</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.608070052166133</v>
       </c>
       <c r="E32" t="n">
-        <v>4.873073524729979</v>
+        <v>4.873494018580161</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.643825003967734</v>
+        <v>-3.673672037066135</v>
       </c>
       <c r="G32" t="n">
-        <v>1.933287134358587</v>
+        <v>1.937058438577404</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.521923806223463</v>
       </c>
       <c r="E33" t="n">
-        <v>4.592180712712418</v>
+        <v>4.591869722469054</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.507876276102998</v>
+        <v>-3.533578962695354</v>
       </c>
       <c r="G33" t="n">
-        <v>1.841231102226793</v>
+        <v>1.84455125158552</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.42855900347572</v>
       </c>
       <c r="E34" t="n">
-        <v>4.260887040596689</v>
+        <v>4.259653299959871</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.396213258158391</v>
+        <v>-3.415215054037523</v>
       </c>
       <c r="G34" t="n">
-        <v>1.717113874066736</v>
+        <v>1.7150157849601</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.32958311797278</v>
       </c>
       <c r="E35" t="n">
-        <v>3.916629601481781</v>
+        <v>3.919999392475598</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.278104127892423</v>
+        <v>-3.297602340122463</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602900152107312</v>
+        <v>1.605379313765675</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.22677096631162</v>
       </c>
       <c r="E36" t="n">
-        <v>3.580825840813235</v>
+        <v>3.588364069106597</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.153127661430866</v>
+        <v>-3.173623816531042</v>
       </c>
       <c r="G36" t="n">
-        <v>1.457545064416896</v>
+        <v>1.455565239205624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.122047717010361</v>
       </c>
       <c r="E37" t="n">
-        <v>3.232490487380419</v>
+        <v>3.233144588925147</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.015261160398721</v>
+        <v>-3.029371795173308</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326911641627113</v>
+        <v>1.325473494257568</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.0182338298269</v>
       </c>
       <c r="E38" t="n">
-        <v>2.87294926484988</v>
+        <v>2.876075227812515</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.960820347233008</v>
+        <v>-2.969669698712006</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180928733257607</v>
+        <v>1.179908159642062</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9175988906358544</v>
       </c>
       <c r="E39" t="n">
-        <v>2.530128513056427</v>
+        <v>2.530543166714244</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.821218579044818</v>
+        <v>-2.83114325594277</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079846683827816</v>
+        <v>1.079675858201179</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8218195933117418</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213509784302421</v>
+        <v>2.213998900412875</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.70452277533085</v>
+        <v>-2.711812065424712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9598219704665754</v>
+        <v>0.9589021401693029</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7334997834070397</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880512236064601</v>
+        <v>1.880580858324874</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.575466934503293</v>
+        <v>-2.582949680969201</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8376232454979717</v>
+        <v>0.8371735506859719</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6533036277848935</v>
       </c>
       <c r="E42" t="n">
-        <v>1.548976195965781</v>
+        <v>1.547371603113872</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.510382370754856</v>
+        <v>-2.520932678259763</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7208442190428213</v>
+        <v>0.7207916573115486</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5812318713060796</v>
       </c>
       <c r="E43" t="n">
-        <v>1.283865043762852</v>
+        <v>1.283409508758488</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.430238140972742</v>
+        <v>-2.441389258267057</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6575423740133838</v>
+        <v>0.6561611685193841</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5159688144653497</v>
       </c>
       <c r="E44" t="n">
-        <v>1.014913965080833</v>
+        <v>1.017755218665741</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.316628878922954</v>
+        <v>-2.323929849401543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5496141590853219</v>
+        <v>0.5486914086918675</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4560402735049336</v>
       </c>
       <c r="E45" t="n">
-        <v>0.79356337425862</v>
+        <v>0.8024609073246176</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.272239766839102</v>
+        <v>-2.278897586133646</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4430291884008959</v>
+        <v>0.4414581766550781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3992791608521226</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5590592101854102</v>
+        <v>0.5683275954664986</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.180996981493945</v>
+        <v>-2.187380311747398</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3753165380888232</v>
+        <v>0.3787797721604586</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3445052138868951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3603525052050999</v>
+        <v>0.3698486579883701</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.090899603876105</v>
+        <v>-2.101199513133421</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2943992128425722</v>
+        <v>0.2967250694513897</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2918607093890047</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2404825569414958</v>
+        <v>0.2534769849505832</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.986641949848588</v>
+        <v>-1.994780987931358</v>
       </c>
       <c r="G48" t="n">
-        <v>0.204593114818869</v>
+        <v>0.2092200072189587</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2412815734979366</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1124582400901665</v>
+        <v>0.1232786564918909</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.88731633827216</v>
+        <v>-1.898671132275157</v>
       </c>
       <c r="G49" t="n">
-        <v>0.152589121916883</v>
+        <v>0.1549149785257005</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1933913989529104</v>
       </c>
       <c r="E50" t="n">
-        <v>0.007413620141649242</v>
+        <v>0.01775514076955556</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.802610918254047</v>
+        <v>-1.815468101742589</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08604012993326449</v>
+        <v>0.09026988925262699</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1486556827871875</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08252826235450843</v>
+        <v>-0.07341172207487451</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.6725337737869</v>
+        <v>-1.685861092760714</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02752286249773475</v>
+        <v>0.03437778828455109</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1073346442202344</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1862383983479351</v>
+        <v>-0.1831474765394814</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.551957162247296</v>
+        <v>-1.567465793068928</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.009022141217709981</v>
+        <v>-0.00674592624398332</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06901200918034756</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3063959760854483</v>
+        <v>-0.3075421138368116</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.439310071889417</v>
+        <v>-1.452003729991777</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07629239695823738</v>
+        <v>-0.07572735834705571</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03339632563655672</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3403070530448937</v>
+        <v>-0.3388265642807123</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.367820277166163</v>
+        <v>-1.379597025067433</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1404264693994929</v>
+        <v>-0.1404162490628565</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0003870538279361927</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4688832680745865</v>
+        <v>-0.4704382192914043</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.322806994523448</v>
+        <v>-1.337308192162353</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1496744140073086</v>
+        <v>-0.1543319674173073</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0330005225359665</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5479185913316562</v>
+        <v>-0.5551122482755634</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.23752412548538</v>
+        <v>-1.243922056219742</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1998226857857497</v>
+        <v>-0.2009352424310221</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.06484012221720724</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6478734836352658</v>
+        <v>-0.6593596819664445</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.196312808071391</v>
+        <v>-1.203709411699935</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.229449981646469</v>
+        <v>-0.2347791571782857</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.09563540978690223</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6700618344728052</v>
+        <v>-0.6834650759473471</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155943938405857</v>
+        <v>-1.159703562239947</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.263831194091187</v>
+        <v>-0.2696159046273673</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.124851279708194</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.765519778656416</v>
+        <v>-0.7740961011424137</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142314389477224</v>
+        <v>-1.147553042027404</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.316347663873082</v>
+        <v>-0.3221484349382623</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1519255766815107</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8320673105919435</v>
+        <v>-0.8377293770884875</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102513478519053</v>
+        <v>-1.102576260586962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3499988522723457</v>
+        <v>-0.356407003343344</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1760588858942514</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9631212272319083</v>
+        <v>-0.972978011893633</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.093107848717419</v>
+        <v>-1.098482285740054</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3935272660066068</v>
+        <v>-0.399408339716787</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1969735500652692</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.084167974256785</v>
+        <v>-1.096312654276963</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.092818759195419</v>
+        <v>-1.097606256885509</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.434909409047232</v>
+        <v>-0.4428038890747753</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2143115149733565</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.144285454399951</v>
+        <v>-1.154412347958493</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13189694634859</v>
+        <v>-1.136376373891498</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.494526092695216</v>
+        <v>-0.5035375095123045</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2284324648220191</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.239470369590561</v>
+        <v>-1.248843878334195</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.160456947054855</v>
+        <v>-1.166838817260217</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5231152943632992</v>
+        <v>-0.5299234986112065</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2398190814280293</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.370290678535981</v>
+        <v>-1.385492699258522</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.121099890716321</v>
+        <v>-1.128473133575409</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5481419786895653</v>
+        <v>-0.5549370425046543</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2490904093808703</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.429612432469601</v>
+        <v>-1.444973598434052</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.199554114833209</v>
+        <v>-1.210384751571569</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6029536440703687</v>
+        <v>-0.6096669451923669</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2571202586446281</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.529105949576484</v>
+        <v>-1.543261115817844</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.290789599937911</v>
+        <v>-1.302686071782635</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6484794035929928</v>
+        <v>-0.6524974559391735</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2650594197727167</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554667011504022</v>
+        <v>-1.562526450377384</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.36098579205262</v>
+        <v>-1.374513137614889</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6721219623290774</v>
+        <v>-0.6765400678521671</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2736094841133018</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.621256884834186</v>
+        <v>-1.625685210693912</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.44310765697387</v>
+        <v>-1.456246629743958</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6671344380505333</v>
+        <v>-0.6682075733973512</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2831716521308756</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676766453202444</v>
+        <v>-1.680856047905079</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.518244651828214</v>
+        <v>-1.529298675924484</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.692085199876072</v>
+        <v>-0.6943862356673441</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2941235303272953</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709843842701981</v>
+        <v>-1.717649259795978</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.629636100827911</v>
+        <v>-1.642808654704089</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7334060208968791</v>
+        <v>-0.7394710606665138</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3057918623336113</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690124433186168</v>
+        <v>-1.696551564882348</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.724196115435613</v>
+        <v>-1.736688286901428</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7558615605350549</v>
+        <v>-0.7610228305364172</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3180809087313846</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.679619387172079</v>
+        <v>-1.688058465137532</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.776375314108508</v>
+        <v>-1.788857265237687</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7774118703568673</v>
+        <v>-0.7783813422892306</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.329978380373353</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630284362180275</v>
+        <v>-1.638443110912272</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.848568121987534</v>
+        <v>-1.858146037463895</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7749648297565043</v>
+        <v>-0.7787478143600487</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3401376596869103</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542348585761026</v>
+        <v>-1.54865453346566</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.95158619518587</v>
+        <v>-1.958563034988277</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.777895146274958</v>
+        <v>-0.7804049689432301</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3474691335749626</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.425083363291602</v>
+        <v>-1.431513415083964</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004861889975038</v>
+        <v>-2.0104407337304</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7651270257199615</v>
+        <v>-0.765389834376325</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3509881871605929</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.28977486651473</v>
+        <v>-1.292245267884547</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056120528326615</v>
+        <v>-2.063165990389295</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7521895395864195</v>
+        <v>-0.7524684087717831</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3502877500188246</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.107308276449597</v>
+        <v>-1.103716558145962</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082936501588289</v>
+        <v>-2.086258841019152</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7256371050051539</v>
+        <v>-0.7248019574971541</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3450717698847645</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9466635651511854</v>
+        <v>-0.9370608288572789</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079717095547836</v>
+        <v>-2.085055031368198</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6705597108718051</v>
+        <v>-0.6696048394203508</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3351794612572187</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7044036256190687</v>
+        <v>-0.6982524430120703</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114865563264326</v>
+        <v>-2.11773163766678</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6116058890570937</v>
+        <v>-0.6145960675472747</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3208545715763432</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4466043942554107</v>
+        <v>-0.4399728558265034</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.11712133756478</v>
+        <v>-2.118109790122325</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5175262302713007</v>
+        <v>-0.5193250095193003</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3024379337605036</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1562869718110341</v>
+        <v>-0.155232817089398</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.10303041343942</v>
+        <v>-2.105347509759692</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4487010233139556</v>
+        <v>-0.451412332618773</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2801650962587353</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1446377000137942</v>
+        <v>0.1419804124883404</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.037220205789802</v>
+        <v>-2.048091723874708</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3341398099088954</v>
+        <v>-0.3373460755165309</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2545609019792966</v>
       </c>
       <c r="E84" t="n">
-        <v>0.489626623222247</v>
+        <v>0.4814999955482492</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.979542466006545</v>
+        <v>-1.991315563787587</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2534882134151898</v>
+        <v>-0.2566477574839162</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2264780279027163</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7948379962419833</v>
+        <v>0.7843022892179861</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.907457701686246</v>
+        <v>-1.917670738082152</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.179411213474846</v>
+        <v>-0.1833445830317541</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1970609293519167</v>
       </c>
       <c r="E86" t="n">
-        <v>1.11094424811608</v>
+        <v>1.102486189525446</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.857562018227532</v>
+        <v>-1.870876926792574</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057240463747749</v>
+        <v>-0.1063212060439566</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1676455786818333</v>
       </c>
       <c r="E87" t="n">
-        <v>1.355687729450833</v>
+        <v>1.352545705959197</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.682429979747079</v>
+        <v>-1.704173015916891</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05893388520542385</v>
+        <v>-0.05934707881515101</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1399091448088793</v>
       </c>
       <c r="E88" t="n">
-        <v>1.579816791790045</v>
+        <v>1.575636674105774</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.500916801085309</v>
+        <v>-1.525628115023939</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01041693906464844</v>
+        <v>0.01043591968983025</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1154394288008773</v>
       </c>
       <c r="E89" t="n">
-        <v>1.767327848009268</v>
+        <v>1.757459382962816</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.267837643948827</v>
+        <v>-1.301065418401727</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06620683666636072</v>
+        <v>0.06522568434927008</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09530314446077261</v>
       </c>
       <c r="E90" t="n">
-        <v>1.949519949033309</v>
+        <v>1.937648298006131</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.038418827376252</v>
+        <v>-1.075498208692969</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09854836192807932</v>
+        <v>0.09771029432389772</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08127616287655273</v>
       </c>
       <c r="E91" t="n">
-        <v>2.13399118512726</v>
+        <v>2.120582103460355</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8137364068105848</v>
+        <v>-0.8518991438107564</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08168188638190203</v>
+        <v>0.08037076319626602</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.07457725579072261</v>
       </c>
       <c r="E92" t="n">
-        <v>2.251082661873865</v>
+        <v>2.240008197104323</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6134119685455477</v>
+        <v>-0.6526653614696281</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09270378942017179</v>
+        <v>0.09425144039653502</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0760958882213788</v>
       </c>
       <c r="E93" t="n">
-        <v>2.355395797728837</v>
+        <v>2.344397255460022</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3643642654387964</v>
+        <v>-0.4025197021985134</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04356879101682135</v>
+        <v>0.04697800330909317</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08575750012954698</v>
       </c>
       <c r="E94" t="n">
-        <v>2.375036364647741</v>
+        <v>2.365814700905561</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2225045328780163</v>
+        <v>-0.2613126111343695</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008476535151830774</v>
+        <v>0.01083597286673923</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1028569221605804</v>
       </c>
       <c r="E95" t="n">
-        <v>2.329636169260935</v>
+        <v>2.323531708192846</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05849149063387851</v>
+        <v>-0.09216603980259674</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02816483173761393</v>
+        <v>-0.02673544465661432</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1251696954717088</v>
       </c>
       <c r="E96" t="n">
-        <v>2.230751492207961</v>
+        <v>2.225409176243327</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06129961503281659</v>
+        <v>0.02717683110018939</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07034270098778442</v>
+        <v>-0.06590561483951289</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.150704668334152</v>
       </c>
       <c r="E97" t="n">
-        <v>2.082828179925638</v>
+        <v>2.074165714602276</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1324754994165248</v>
+        <v>0.1065844666204408</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1259384121934058</v>
+        <v>-0.1202573650716801</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1776972136510521</v>
       </c>
       <c r="E98" t="n">
-        <v>1.889202442301689</v>
+        <v>1.881306502226055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1981075811990526</v>
+        <v>0.1773661380196036</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1399899150203112</v>
+        <v>-0.1387649346720388</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.20511848665852</v>
       </c>
       <c r="E99" t="n">
-        <v>1.691911983969561</v>
+        <v>1.682031838538381</v>
       </c>
       <c r="F99" t="n">
-        <v>0.208095770188959</v>
+        <v>0.1908029606002364</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.13405919967504</v>
+        <v>-0.1354681460827669</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2325867789462381</v>
       </c>
       <c r="E100" t="n">
-        <v>1.53366321158833</v>
+        <v>1.518858323946516</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2313397357962255</v>
+        <v>0.2174196372975019</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1301608712723138</v>
+        <v>-0.1286803825081324</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2577382716825707</v>
       </c>
       <c r="E101" t="n">
-        <v>1.391317283013278</v>
+        <v>1.372631587545828</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2223487596524097</v>
+        <v>0.2133198222582303</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105071639205918</v>
+        <v>-0.1101246313207737</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2799260657131461</v>
       </c>
       <c r="E102" t="n">
-        <v>1.210136995316235</v>
+        <v>1.185013947815969</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2369244197439513</v>
+        <v>0.2279743249466809</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1420485828284924</v>
+        <v>-0.1427129047098559</v>
       </c>
     </row>
   </sheetData>
